--- a/workbook1.xlsx
+++ b/workbook1.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airion\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexirion/Downloads/MLFin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="9990" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24360" windowHeight="10000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__FDSCACHE__" sheetId="2" state="veryHidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
     <author>Alex Irion</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,15 +415,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -428,16 +434,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>_xll.FDS("AAPL-US","FG_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
@@ -475,7 +481,7 @@
         <v>JPMorgan Chase &amp; Co.</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f t="array" ref="A2:A121">_xll.FDS("AAPL-US","FG_PRICE(-10AY,NOW,M,USD)")</f>
         <v>21.924288000000001</v>
@@ -522,7 +528,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>27.135715000000001</v>
       </c>
@@ -560,7 +566,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>26.03143</v>
       </c>
@@ -598,7 +604,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>28.297143999999999</v>
       </c>
@@ -636,7 +642,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>19.337143000000001</v>
       </c>
@@ -674,7 +680,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17.86</v>
       </c>
@@ -712,7 +718,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20.5</v>
       </c>
@@ -750,7 +756,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>24.85</v>
       </c>
@@ -788,7 +794,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>26.964286999999999</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>23.920002</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>22.707144</v>
       </c>
@@ -902,7 +908,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24.218572999999999</v>
       </c>
@@ -940,7 +946,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>16.237144000000001</v>
       </c>
@@ -978,7 +984,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15.37</v>
       </c>
@@ -1016,7 +1022,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13.238572</v>
       </c>
@@ -1054,7 +1060,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12.192857999999999</v>
       </c>
@@ -1092,7 +1098,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12.875714</v>
       </c>
@@ -1130,7 +1136,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>12.758571999999999</v>
       </c>
@@ -1168,7 +1174,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>15.017144</v>
       </c>
@@ -1206,7 +1212,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17.975715999999998</v>
       </c>
@@ -1244,7 +1250,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19.401427999999999</v>
       </c>
@@ -1282,7 +1288,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20.347142999999999</v>
       </c>
@@ -1320,7 +1326,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23.341429000000002</v>
       </c>
@@ -1358,7 +1364,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24.030003000000001</v>
       </c>
@@ -1396,7 +1402,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>26.478573000000001</v>
       </c>
@@ -1434,7 +1440,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26.928571999999999</v>
       </c>
@@ -1472,7 +1478,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28.558572999999999</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30.104572000000001</v>
       </c>
@@ -1548,7 +1554,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27.437571999999999</v>
       </c>
@@ -1586,7 +1592,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29.23143</v>
       </c>
@@ -1624,7 +1630,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33.571429999999999</v>
       </c>
@@ -1662,7 +1668,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37.298572999999998</v>
       </c>
@@ -1700,7 +1706,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>36.697144000000002</v>
       </c>
@@ -1738,7 +1744,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35.932858000000003</v>
       </c>
@@ -1776,7 +1782,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36.75</v>
       </c>
@@ -1814,7 +1820,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34.728572999999997</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40.535716999999998</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42.997146999999998</v>
       </c>
@@ -1928,7 +1934,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44.45</v>
       </c>
@@ -1966,7 +1972,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>46.08</v>
       </c>
@@ -2004,7 +2010,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>48.474290000000003</v>
       </c>
@@ -2042,7 +2048,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>50.458571999999997</v>
       </c>
@@ -2080,7 +2086,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>49.786790000000003</v>
       </c>
@@ -2118,7 +2124,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>50.018574000000001</v>
       </c>
@@ -2156,7 +2162,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49.69</v>
       </c>
@@ -2194,7 +2200,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>47.952860000000001</v>
       </c>
@@ -2232,7 +2238,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>55.782859999999999</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>54.975715999999998</v>
       </c>
@@ -2308,7 +2314,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>54.474290000000003</v>
       </c>
@@ -2346,7 +2352,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>57.825718000000002</v>
       </c>
@@ -2384,7 +2390,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>54.600002000000003</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>57.857146999999998</v>
       </c>
@@ -2460,7 +2466,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>65.211429999999993</v>
       </c>
@@ -2498,7 +2504,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>77.491429999999994</v>
       </c>
@@ -2536,7 +2542,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>85.65</v>
       </c>
@@ -2574,7 +2580,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>83.425709999999995</v>
       </c>
@@ -2612,7 +2618,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>82.532859999999999</v>
       </c>
@@ -2650,7 +2656,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>83.428569999999993</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>87.251434000000003</v>
       </c>
@@ -2726,7 +2732,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>95.034289999999999</v>
       </c>
@@ -2764,7 +2770,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>95.300709999999995</v>
       </c>
@@ -2802,7 +2808,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>85.045715000000001</v>
       </c>
@@ -2840,7 +2846,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83.611435</v>
       </c>
@@ -2878,7 +2884,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>76.024699999999996</v>
       </c>
@@ -2916,7 +2922,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65.069999999999993</v>
       </c>
@@ -2954,7 +2960,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63.057144000000001</v>
       </c>
@@ -2992,7 +2998,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>63.237144000000001</v>
       </c>
@@ -3030,7 +3036,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>63.254288000000003</v>
       </c>
@@ -3068,7 +3074,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>64.247855999999999</v>
       </c>
@@ -3106,7 +3112,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>56.647143999999997</v>
       </c>
@@ -3144,7 +3150,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>64.647149999999996</v>
       </c>
@@ -3182,7 +3188,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69.602289999999996</v>
       </c>
@@ -3220,7 +3226,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>68.107150000000004</v>
       </c>
@@ -3258,7 +3264,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74.671719999999993</v>
       </c>
@@ -3296,7 +3302,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>79.438575999999998</v>
       </c>
@@ -3334,7 +3340,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>80.145719999999997</v>
       </c>
@@ -3372,7 +3378,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>71.514290000000003</v>
       </c>
@@ -3410,7 +3416,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75.177149999999997</v>
       </c>
@@ -3448,7 +3454,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76.677149999999997</v>
       </c>
@@ -3486,7 +3492,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>84.298580000000001</v>
       </c>
@@ -3524,7 +3530,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>90.428569999999993</v>
       </c>
@@ -3562,7 +3568,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>92.93</v>
       </c>
@@ -3600,7 +3606,7 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>95.6</v>
       </c>
@@ -3638,7 +3644,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>102.5</v>
       </c>
@@ -3676,7 +3682,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>100.75</v>
       </c>
@@ -3714,7 +3720,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>108</v>
       </c>
@@ -3752,7 +3758,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>118.93</v>
       </c>
@@ -3790,7 +3796,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>110.38</v>
       </c>
@@ -3828,7 +3834,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>117.16</v>
       </c>
@@ -3866,7 +3872,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>128.46</v>
       </c>
@@ -3904,7 +3910,7 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>124.43</v>
       </c>
@@ -3942,7 +3948,7 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>125.15</v>
       </c>
@@ -3980,7 +3986,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>130.28</v>
       </c>
@@ -4018,7 +4024,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>125.425</v>
       </c>
@@ -4056,7 +4062,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>121.3</v>
       </c>
@@ -4094,7 +4100,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>112.76</v>
       </c>
@@ -4132,7 +4138,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>110.3</v>
       </c>
@@ -4170,7 +4176,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>119.5</v>
       </c>
@@ -4208,7 +4214,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>118.3</v>
       </c>
@@ -4246,7 +4252,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>105.26</v>
       </c>
@@ -4284,7 +4290,7 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>97.34</v>
       </c>
@@ -4322,7 +4328,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>96.69</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>108.99</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>59.22</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>93.74</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>99.86</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>65.27</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>95.6</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>62.14</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>104.21</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>63.97</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106.1</v>
       </c>
@@ -4534,7 +4540,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113.05</v>
       </c>
@@ -4572,7 +4578,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>113.54</v>
       </c>
@@ -4610,7 +4616,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110.52</v>
       </c>
@@ -4648,7 +4654,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>115.82</v>
       </c>
@@ -4686,7 +4692,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>121.35</v>
       </c>
@@ -4724,7 +4730,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>136.99</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>143.66</v>
       </c>
@@ -4800,7 +4806,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>143.65</v>
       </c>
@@ -4838,7 +4844,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>152.76</v>
       </c>
@@ -4876,7 +4882,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>144.02000000000001</v>
       </c>
@@ -4914,7 +4920,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>148.72999999999999</v>
       </c>
@@ -4952,7 +4958,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>164</v>
       </c>
@@ -4990,7 +4996,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -5001,7 +5007,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -5012,7 +5018,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -5023,43 +5029,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f>(A121-A2)/10</f>
-        <v>14.2075712</v>
-      </c>
-      <c r="B125">
-        <f t="shared" ref="B125:I125" si="0">(B121-B2)/10</f>
-        <v>10.212</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="0"/>
-        <v>4.5309999999999997</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="0"/>
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="0"/>
-        <v>88.745000000000005</v>
-      </c>
-      <c r="F125" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="0"/>
-        <v>67.133042000000003</v>
-      </c>
-      <c r="H125">
-        <f t="shared" si="0"/>
-        <v>16.565999999999999</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="0"/>
-        <v>4.5069999999999997</v>
-      </c>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -5070,7 +5040,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -5081,7 +5051,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -5092,7 +5062,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -5103,7 +5073,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -5114,7 +5084,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -5125,7 +5095,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -5136,7 +5106,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
@@ -5147,7 +5117,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -5158,7 +5128,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -5169,7 +5139,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
@@ -5180,7 +5150,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -5191,7 +5161,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -5202,7 +5172,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
@@ -5213,7 +5183,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
@@ -5224,7 +5194,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -5235,7 +5205,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -5246,7 +5216,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
@@ -5257,7 +5227,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -5268,7 +5238,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -5279,7 +5249,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -5290,7 +5260,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -5301,7 +5271,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -5312,7 +5282,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -5323,7 +5293,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -5334,7 +5304,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
@@ -5345,7 +5315,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -5356,7 +5326,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -5367,7 +5337,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -5378,7 +5348,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
@@ -5389,7 +5359,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
@@ -5400,7 +5370,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -5411,7 +5381,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -5422,7 +5392,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -5433,7 +5403,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -5444,7 +5414,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -5455,7 +5425,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -5466,7 +5436,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -5477,7 +5447,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -5488,7 +5458,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -5499,7 +5469,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -5510,7 +5480,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -5521,7 +5491,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -5532,7 +5502,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -5543,7 +5513,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -5554,7 +5524,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
@@ -5565,7 +5535,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
@@ -5576,7 +5546,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -5587,7 +5557,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -5598,7 +5568,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
@@ -5609,7 +5579,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -5620,7 +5590,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -5631,7 +5601,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -5642,7 +5612,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -5653,7 +5623,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
@@ -5664,7 +5634,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -5675,7 +5645,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
@@ -5686,7 +5656,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
@@ -5697,7 +5667,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -5708,7 +5678,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -5719,7 +5689,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -5730,7 +5700,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
@@ -5741,7 +5711,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
@@ -5752,7 +5722,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -5763,7 +5733,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
@@ -5774,7 +5744,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
@@ -5785,7 +5755,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
@@ -5796,7 +5766,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -5807,7 +5777,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -5818,7 +5788,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
@@ -5829,7 +5799,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
@@ -5840,7 +5810,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
@@ -5851,7 +5821,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -5862,7 +5832,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -5873,7 +5843,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -5884,7 +5854,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
@@ -5895,7 +5865,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
@@ -5906,7 +5876,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
@@ -5917,7 +5887,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
@@ -5928,7 +5898,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -5939,7 +5909,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
@@ -5950,7 +5920,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
@@ -5961,7 +5931,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
@@ -5972,7 +5942,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
@@ -5983,7 +5953,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="15:23" x14ac:dyDescent="0.2">
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
